--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,29 +764,29 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,29 +844,29 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -697,12 +697,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -777,12 +777,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,29 +1004,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -697,12 +697,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -777,12 +777,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,29 +1004,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,29 +764,29 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,29 +844,29 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
         <v>18000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
         <v>18000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,33 +840,33 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,29 +1004,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,33 +840,33 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,29 +1004,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,33 +840,33 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,29 +1004,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
@@ -857,12 +857,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="N8" t="n">
         <v>12000</v>
@@ -1017,18 +1017,258 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>800</v>
       </c>
       <c r="T8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>40</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>90</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>75</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>800</v>
+      </c>
+      <c r="T11" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44649</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44649</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,41 +595,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44649</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44644</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
         <v>18000</v>
@@ -1097,12 +1097,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,29 +1164,29 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="N11" t="n">
         <v>12000</v>
@@ -1257,18 +1257,258 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
         <v>800</v>
       </c>
       <c r="T11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>40</v>
+      </c>
+      <c r="N12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>90</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>75</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>800</v>
+      </c>
+      <c r="T14" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44649</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44649</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,41 +595,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44649</v>
+        <v>44285</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,29 +764,29 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,29 +844,29 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44649</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
         <v>1200</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44649</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N10" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,38 +1315,38 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,29 +1404,29 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,29 +1484,29 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44649</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44649</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,41 +595,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,38 +755,38 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,38 +835,38 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44649</v>
+        <v>44644</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N7" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44649</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44649</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
         <v>18000</v>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,29 +1244,29 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="N12" t="n">
         <v>12000</v>
@@ -1337,12 +1337,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
         <v>21600</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N3" t="n">
         <v>16200</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N4" t="n">
         <v>14400</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -789,7 +789,7 @@
         <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="O6" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -869,7 +869,7 @@
         <v>900</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,16 +995,16 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,38 +1155,38 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,29 +1244,29 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,29 +1324,29 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1417,12 +1417,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1497,18 +1497,258 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
         <v>1000</v>
       </c>
       <c r="T14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>75</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>800</v>
+      </c>
+      <c r="T15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>40</v>
+      </c>
+      <c r="N16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>70</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T17" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>21600</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
         <v>21600</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N6" t="n">
         <v>16200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
         <v>14400</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1029,7 +1029,7 @@
         <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="O9" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="P9" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1109,7 +1109,7 @@
         <v>900</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1189,7 +1189,7 @@
         <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,16 +1235,16 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,38 +1395,38 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,29 +1484,29 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,29 +1564,29 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1657,12 +1657,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
         <v>15000</v>
@@ -1737,18 +1737,258 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>1000</v>
       </c>
       <c r="T17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>75</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>800</v>
+      </c>
+      <c r="T18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>40</v>
+      </c>
+      <c r="N19" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>70</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T20" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44664</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44664</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,41 +595,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
         <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>44678</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44658</v>
+        <v>44678</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N8" t="n">
         <v>21600</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N9" t="n">
         <v>16200</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N10" t="n">
         <v>14400</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1269,7 +1269,7 @@
         <v>1200</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="O12" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="P12" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1349,7 +1349,7 @@
         <v>900</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1429,7 +1429,7 @@
         <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,41 +1475,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
         <v>1200</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
         <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,33 +1880,33 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44309</v>
+        <v>44644</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,40 +1955,200 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>180</v>
+      </c>
+      <c r="N20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>220</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O21" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P21" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>900</v>
+      </c>
+      <c r="T21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="N20" t="n">
-        <v>15000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>15000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>15000</v>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="M22" t="n">
+        <v>290</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>$/caja 15 kilos granel</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>800</v>
+      </c>
+      <c r="T22" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44685</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44685</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,29 +675,29 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44678</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44309</v>
+        <v>44678</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,16 +915,16 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44658</v>
+        <v>44678</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N8" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N11" t="n">
         <v>21600</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N12" t="n">
         <v>16200</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
         <v>14400</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
         <v>21600</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1567,13 +1567,13 @@
         <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>1200</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
         <v>18000</v>
@@ -1977,12 +1977,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,29 +2044,29 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N21" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="N22" t="n">
         <v>12000</v>
@@ -2137,18 +2137,258 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
         <v>800</v>
       </c>
       <c r="T22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>180</v>
+      </c>
+      <c r="N23" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>220</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O24" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P24" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>900</v>
+      </c>
+      <c r="T24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>290</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>800</v>
+      </c>
+      <c r="T25" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44678</v>
+        <v>44687</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44678</v>
+        <v>44687</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44687</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44678</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,16 +1155,16 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44658</v>
+        <v>44678</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N14" t="n">
         <v>21600</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N15" t="n">
         <v>16200</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N16" t="n">
         <v>14400</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
         <v>21600</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1807,13 +1807,13 @@
         <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
         <v>1200</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
         <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
         <v>18000</v>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,29 +2284,29 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N24" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="N25" t="n">
         <v>12000</v>
@@ -2377,18 +2377,258 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S25" t="n">
         <v>800</v>
       </c>
       <c r="T25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E26" t="n">
+        <v>13</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>180</v>
+      </c>
+      <c r="N26" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T26" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>220</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O27" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P27" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>900</v>
+      </c>
+      <c r="T27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>290</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>800</v>
+      </c>
+      <c r="T28" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>330</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1007,13 +1007,13 @@
         <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44309</v>
+        <v>44687</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,25 +1475,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N15" t="n">
-        <v>16200</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>16200</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>16200</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>220</v>
       </c>
       <c r="N16" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O16" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P16" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="O17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="P17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N18" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="O18" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="P18" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44649</v>
+        <v>44285</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44664</v>
+        <v>44644</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,38 +2195,38 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,38 +2275,38 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44285</v>
+        <v>44678</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,38 +2355,38 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44644</v>
+        <v>44678</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
         <v>1200</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2207,29 +2207,29 @@
         <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
         <v>800</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44678</v>
+        <v>44644</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44678</v>
+        <v>44644</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2447,13 +2447,13 @@
         <v>220</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>44678</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,16 +2595,16 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="N28" t="n">
         <v>15000</v>
@@ -2629,6 +2629,246 @@
         <v>1000</v>
       </c>
       <c r="T28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>220</v>
+      </c>
+      <c r="N29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>800</v>
+      </c>
+      <c r="T29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>50</v>
+      </c>
+      <c r="N30" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>60</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T31" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,41 +595,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44658</v>
+        <v>44678</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N4" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44678</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,16 +995,16 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1017,19 +1017,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,41 +1075,41 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44685</v>
+        <v>44285</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>16200</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>16200</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>16200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="P13" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N16" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44649</v>
+        <v>44644</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N17" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44649</v>
+        <v>44644</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N18" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="O18" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="P18" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,38 +1875,38 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44285</v>
+        <v>44685</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44285</v>
+        <v>44685</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44694</v>
+        <v>44685</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N22" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N23" t="n">
         <v>18000</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N26" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="O26" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="P26" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="N27" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="O27" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="P27" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44678</v>
+        <v>44658</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,36 +2600,36 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44678</v>
+        <v>44694</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,29 +2675,29 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44305</v>
+        <v>44694</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N30" t="n">
         <v>18000</v>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44305</v>
+        <v>44694</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,250 @@
         </is>
       </c>
       <c r="S31" t="n">
+        <v>800</v>
+      </c>
+      <c r="T31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>300</v>
+      </c>
+      <c r="N32" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O32" t="n">
+        <v>21600</v>
+      </c>
+      <c r="P32" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>250</v>
+      </c>
+      <c r="N33" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
         <v>1000</v>
       </c>
-      <c r="T31" t="n">
-        <v>15</v>
+      <c r="T33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>250</v>
+      </c>
+      <c r="N34" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O34" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P34" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>889</v>
+      </c>
+      <c r="T34" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O33" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P33" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3080,35 +3080,195 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>300</v>
+      </c>
+      <c r="N34" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O34" t="n">
+        <v>21600</v>
+      </c>
+      <c r="P34" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>250</v>
+      </c>
+      <c r="N35" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O35" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T35" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="M36" t="n">
         <v>250</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N36" t="n">
         <v>16000</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O36" t="n">
         <v>16000</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P36" t="n">
         <v>16000</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S34" t="n">
+      <c r="S36" t="n">
         <v>889</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T36" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44678</v>
+        <v>44698</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44678</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44685</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44285</v>
+        <v>44685</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44285</v>
+        <v>44685</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44285</v>
+        <v>44678</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,38 +1155,38 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44649</v>
+        <v>44706</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44649</v>
+        <v>44706</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="O13" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="P13" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44687</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44687</v>
+        <v>44309</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
         <v>15000</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N18" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N26" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="O26" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="P26" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="O27" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="P27" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>220</v>
       </c>
       <c r="N28" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O28" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P28" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="O29" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="P29" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N30" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P30" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44694</v>
+        <v>44664</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44706</v>
+        <v>44664</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44706</v>
+        <v>44664</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>694</v>
+        <v>889</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S34" t="n">
         <v>1200</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S35" t="n">
         <v>1000</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N4" t="n">
         <v>12000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44685</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44685</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44678</v>
+        <v>44694</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,38 +1235,38 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44706</v>
+        <v>44285</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44706</v>
+        <v>44285</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N13" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N14" t="n">
         <v>18000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N15" t="n">
         <v>15000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44644</v>
+        <v>44309</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44644</v>
+        <v>44309</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44694</v>
+        <v>44658</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
         <v>21600</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44694</v>
+        <v>44658</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44694</v>
+        <v>44658</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N21" t="n">
         <v>14400</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2207,13 +2207,13 @@
         <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N25" t="n">
         <v>21600</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
         <v>16200</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N27" t="n">
         <v>14400</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N28" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44649</v>
+        <v>44706</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>12500</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>12500</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>12500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44664</v>
+        <v>44305</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
         <v>18000</v>
@@ -2937,19 +2937,19 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44664</v>
+        <v>44305</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
         <v>15000</v>
@@ -3177,19 +3177,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -549,7 +549,7 @@
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="O3" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -629,7 +629,7 @@
         <v>900</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -709,7 +709,7 @@
         <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44694</v>
+        <v>44285</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44694</v>
+        <v>44285</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S9" t="n">
         <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44694</v>
+        <v>44285</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N10" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S10" t="n">
         <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44285</v>
+        <v>44678</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,29 +1244,29 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44285</v>
+        <v>44678</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,29 +1324,29 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,33 +1400,33 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44698</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>220</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44309</v>
+        <v>44687</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44309</v>
+        <v>44664</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N20" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N21" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44664</v>
+        <v>44644</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N22" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="O22" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="P22" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44664</v>
+        <v>44644</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44664</v>
+        <v>44309</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44649</v>
+        <v>44309</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,41 +2435,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N26" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,41 +2515,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44678</v>
+        <v>44698</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,29 +2675,29 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44706</v>
+        <v>44685</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44706</v>
+        <v>44685</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N31" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44305</v>
+        <v>44706</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44305</v>
+        <v>44706</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44694</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -789,7 +789,7 @@
         <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44694</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -869,7 +869,7 @@
         <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1017,19 +1017,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,33 +1160,33 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44678</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,16 +1235,16 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44678</v>
+        <v>44649</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44649</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44649</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
         <v>15000</v>
@@ -1657,19 +1657,19 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44664</v>
+        <v>44678</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44664</v>
+        <v>44678</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,16 +1955,16 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
         <v>16000</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44644</v>
+        <v>44685</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,41 +2115,41 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N22" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44644</v>
+        <v>44685</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,41 +2195,41 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44309</v>
+        <v>44687</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,41 +2595,41 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N28" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O28" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P28" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="P29" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,41 +2915,41 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,41 +2995,41 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N33" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
         <v>21600</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O35" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P35" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N36" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,41 +755,41 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
         <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,41 +835,41 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44694</v>
+        <v>44658</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="O7" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="P7" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44694</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44649</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44649</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44649</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44285</v>
+        <v>44706</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44285</v>
+        <v>44706</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2047,29 +2047,29 @@
         <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O21" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="P21" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>694</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,41 +2115,41 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44687</v>
+        <v>44678</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,16 +2435,16 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N26" t="n">
         <v>15000</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44687</v>
+        <v>44678</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,29 +2515,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44658</v>
+        <v>44685</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N28" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O28" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44658</v>
+        <v>44685</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2687,13 +2687,13 @@
         <v>330</v>
       </c>
       <c r="N29" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44658</v>
+        <v>44685</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N30" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2869,7 +2869,7 @@
         <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="O32" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="P32" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2949,7 +2949,7 @@
         <v>900</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3029,7 +3029,7 @@
         <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S34" t="n">
         <v>1200</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S35" t="n">
         <v>1000</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N4" t="n">
         <v>12000</v>
@@ -697,12 +697,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44706</v>
+        <v>44698</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44706</v>
+        <v>44649</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>220</v>
       </c>
       <c r="N16" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="O16" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="P16" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>694</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="O17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="P17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44664</v>
+        <v>44658</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="O21" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="P21" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,41 +2195,41 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="O23" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="P23" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44687</v>
+        <v>44706</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44678</v>
+        <v>44706</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,29 +2435,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O27" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P27" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44685</v>
+        <v>44664</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N28" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O28" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P28" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44685</v>
+        <v>44664</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,36 +2840,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44285</v>
+        <v>44685</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,36 +3080,36 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,29 +3164,29 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,29 +3244,29 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>12000</v>
@@ -697,12 +697,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44694</v>
+        <v>44658</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N8" t="n">
         <v>21600</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44694</v>
+        <v>44658</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44694</v>
+        <v>44658</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N10" t="n">
         <v>14400</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,16 +1235,16 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,33 +1480,33 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,33 +1560,33 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44649</v>
+        <v>44285</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N16" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N17" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N18" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>800</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N19" t="n">
         <v>21600</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N20" t="n">
         <v>16200</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N21" t="n">
         <v>14400</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,16 +2115,16 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
         <v>18000</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44644</v>
+        <v>44687</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44706</v>
+        <v>44687</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44706</v>
+        <v>44687</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N26" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44664</v>
+        <v>44694</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
         <v>21600</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44664</v>
+        <v>44694</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N28" t="n">
         <v>18000</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44664</v>
+        <v>44694</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2687,13 +2687,13 @@
         <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44678</v>
+        <v>44706</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44678</v>
+        <v>44706</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2847,17 +2847,17 @@
         <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,11 +3000,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="N33" t="n">
         <v>15000</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N4" t="n">
         <v>12000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,41 +1075,41 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,41 +1155,41 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N10" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,33 +1480,33 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44285</v>
+        <v>44658</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44285</v>
+        <v>44658</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44678</v>
+        <v>44658</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>250</v>
       </c>
       <c r="N20" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44649</v>
+        <v>44694</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O21" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P21" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44694</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N22" t="n">
         <v>18000</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44305</v>
+        <v>44694</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2287,13 +2287,13 @@
         <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P24" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2367,13 +2367,13 @@
         <v>250</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44694</v>
+        <v>44285</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S27" t="n">
         <v>1200</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44694</v>
+        <v>44285</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S28" t="n">
         <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44694</v>
+        <v>44285</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N29" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S29" t="n">
         <v>800</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44706</v>
+        <v>44678</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44706</v>
+        <v>44678</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2847,17 +2847,17 @@
         <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,29 +607,29 @@
         <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44698</v>
+        <v>44678</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44698</v>
+        <v>44678</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1247,13 +1247,13 @@
         <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44687</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44687</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
         <v>21600</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>1200</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N21" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2069,7 +2069,7 @@
         <v>1200</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2127,17 +2127,17 @@
         <v>220</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2149,7 +2149,7 @@
         <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2229,7 +2229,7 @@
         <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
         <v>21600</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N25" t="n">
         <v>16200</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N26" t="n">
         <v>14400</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,11 +2520,11 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
         <v>18000</v>
@@ -2537,12 +2537,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
         <v>15000</v>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44678</v>
+        <v>44649</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,36 +2760,36 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44678</v>
+        <v>44649</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,36 +2840,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
         <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44706</v>
+        <v>44685</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>889</v>
+        <v>1167</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44706</v>
+        <v>44685</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N33" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44694</v>
+        <v>44706</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44694</v>
+        <v>44706</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44694</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N6" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44706</v>
+        <v>44698</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44706</v>
+        <v>44685</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N9" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>694</v>
+        <v>1167</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,16 +1155,16 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44678</v>
+        <v>44685</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,29 +1235,29 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44687</v>
+        <v>44678</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44687</v>
+        <v>44678</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44687</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44664</v>
+        <v>44309</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44698</v>
+        <v>44694</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,33 +2120,33 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,33 +2200,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="N24" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="O25" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="P25" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,41 +2515,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44649</v>
+        <v>44644</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="O29" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="P29" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44649</v>
+        <v>44644</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N30" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O30" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P30" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44309</v>
+        <v>44649</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44309</v>
+        <v>44649</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44706</v>
+        <v>44658</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44706</v>
+        <v>44658</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N3" t="n">
-        <v>12500</v>
+        <v>16200</v>
       </c>
       <c r="O3" t="n">
-        <v>12500</v>
+        <v>16200</v>
       </c>
       <c r="P3" t="n">
-        <v>12500</v>
+        <v>16200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>694</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44658</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,41 +755,41 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44698</v>
+        <v>44664</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,16 +835,16 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
@@ -857,19 +857,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44698</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44698</v>
+        <v>44678</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,41 +1155,41 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>556</v>
+        <v>900</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44678</v>
+        <v>44644</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>290</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,38 +1395,38 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,29 +1484,29 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,29 +1564,29 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P16" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1909,7 +1909,7 @@
         <v>1200</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1967,17 +1967,17 @@
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1989,7 +1989,7 @@
         <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2069,7 +2069,7 @@
         <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
         <v>15000</v>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N25" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="O25" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="P25" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>889</v>
+        <v>1167</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44644</v>
+        <v>44685</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,41 +2595,41 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="N28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44644</v>
+        <v>44685</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N29" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44658</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44658</v>
+        <v>44706</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44658</v>
+        <v>44706</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3087,13 +3087,13 @@
         <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3167,13 +3167,13 @@
         <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N36" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N4" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
         <v>21600</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44644</v>
+        <v>44664</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
         <v>12000</v>
@@ -1577,12 +1577,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44694</v>
+        <v>44685</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N16" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44694</v>
+        <v>44685</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44694</v>
+        <v>44685</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N19" t="n">
         <v>18000</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1967,13 +1967,13 @@
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N21" t="n">
         <v>12000</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44309</v>
+        <v>44687</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44309</v>
+        <v>44687</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
         <v>15000</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,36 +2360,36 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N25" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,36 +2440,36 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N26" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
         <v>800</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="N28" t="n">
         <v>15000</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44685</v>
+        <v>44658</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>280</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44305</v>
+        <v>44658</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="N30" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P30" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44305</v>
+        <v>44658</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44706</v>
+        <v>44305</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44706</v>
+        <v>44305</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44658</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44658</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44658</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>21600</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>44678</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N8" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44664</v>
+        <v>44678</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44664</v>
+        <v>44644</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N12" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N15" t="n">
         <v>12000</v>
@@ -1577,12 +1577,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P16" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
         <v>18000</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1967,13 +1967,13 @@
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
         <v>12000</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44309</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44687</v>
+        <v>44309</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
         <v>15000</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44678</v>
+        <v>44649</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,36 +2360,36 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44678</v>
+        <v>44649</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,36 +2440,36 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
         <v>800</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N28" t="n">
         <v>15000</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44658</v>
+        <v>44685</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>280</v>
       </c>
       <c r="N29" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44658</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44658</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44305</v>
+        <v>44706</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44305</v>
+        <v>44706</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44694</v>
+        <v>44687</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44694</v>
+        <v>44687</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44694</v>
+        <v>44687</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N36" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44685</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N5" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N6" t="n">
-        <v>16200</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>16200</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>16200</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,16 +1155,16 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
         <v>16000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>889</v>
+        <v>694</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44706</v>
+        <v>44678</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,29 +1315,29 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N12" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44698</v>
+        <v>44678</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>220</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44685</v>
+        <v>44285</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44685</v>
+        <v>44285</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44644</v>
+        <v>44285</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,38 +1875,38 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="O20" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="P20" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44687</v>
+        <v>44698</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44687</v>
+        <v>44698</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44678</v>
+        <v>44698</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44678</v>
+        <v>44309</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,24 +2600,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44658</v>
+        <v>44694</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O29" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P29" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44658</v>
+        <v>44694</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N30" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="O30" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="P30" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44305</v>
+        <v>44658</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44305</v>
+        <v>44658</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
         <v>1200</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3167,29 +3167,29 @@
         <v>220</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N36" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
         <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44687</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44687</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,16 +755,16 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,29 +835,29 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>44644</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>1200</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>44644</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44664</v>
+        <v>44644</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44706</v>
+        <v>44658</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44706</v>
+        <v>44658</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N11" t="n">
-        <v>12500</v>
+        <v>16200</v>
       </c>
       <c r="O11" t="n">
-        <v>12500</v>
+        <v>16200</v>
       </c>
       <c r="P11" t="n">
-        <v>12500</v>
+        <v>16200</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>694</v>
+        <v>900</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44678</v>
+        <v>44658</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44678</v>
+        <v>44706</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,29 +1395,29 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44687</v>
+        <v>44706</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>220</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1167</v>
+        <v>694</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,29 +1804,29 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,29 +1884,29 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
         <v>21600</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2047,13 +2047,13 @@
         <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N22" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
         <v>18000</v>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N24" t="n">
         <v>15000</v>
@@ -2297,12 +2297,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N25" t="n">
         <v>12000</v>
@@ -2377,12 +2377,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,11 +2520,11 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N27" t="n">
         <v>15000</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44694</v>
+        <v>44685</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N28" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44694</v>
+        <v>44309</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
         <v>18000</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44694</v>
+        <v>44309</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2847,29 +2847,29 @@
         <v>280</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
         <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
         <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3109,7 +3109,7 @@
         <v>1200</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="O35" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="P35" t="n">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3189,7 +3189,7 @@
         <v>900</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3269,7 +3269,7 @@
         <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44678</v>
+        <v>44698</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44678</v>
+        <v>44698</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>220</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44644</v>
+        <v>44678</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N8" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44644</v>
+        <v>44678</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
         <v>12000</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,41 +1155,41 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
         <v>1200</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44706</v>
+        <v>44285</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44706</v>
+        <v>44285</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N14" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N15" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
         <v>1200</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1647,29 +1647,29 @@
         <v>220</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N17" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2047,13 +2047,13 @@
         <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
         <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
         <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
         <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44698</v>
+        <v>44649</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
         <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44698</v>
+        <v>44649</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44698</v>
+        <v>44649</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
         <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
         <v>21600</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N35" t="n">
         <v>16200</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N36" t="n">
         <v>14400</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
         <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44698</v>
+        <v>44706</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44698</v>
+        <v>44706</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,17 +847,17 @@
         <v>220</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44678</v>
+        <v>44687</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,16 +995,16 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44678</v>
+        <v>44687</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1189,7 +1189,7 @@
         <v>1200</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1269,7 +1269,7 @@
         <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,41 +1475,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>180</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44644</v>
+        <v>44685</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N16" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44644</v>
+        <v>44685</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44685</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44687</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44694</v>
+        <v>44664</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44694</v>
+        <v>44678</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44694</v>
+        <v>44678</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,29 +2355,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N25" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2389,7 +2389,7 @@
         <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44706</v>
+        <v>44309</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44706</v>
+        <v>44309</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N31" t="n">
         <v>21600</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N32" t="n">
         <v>16200</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
         <v>14400</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S34" t="n">
         <v>1200</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N36" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S36" t="n">
         <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N4" t="n">
         <v>12000</v>
@@ -697,12 +697,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44706</v>
+        <v>44698</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44706</v>
+        <v>44698</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,17 +847,17 @@
         <v>220</v>
       </c>
       <c r="N6" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44687</v>
+        <v>44698</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44687</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44687</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N10" t="n">
         <v>21600</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N12" t="n">
         <v>14400</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N13" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N15" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>250</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44664</v>
+        <v>44644</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44678</v>
+        <v>44644</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44678</v>
+        <v>44644</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N25" t="n">
         <v>12000</v>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2527,29 +2527,29 @@
         <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O27" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="P27" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>694</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,24 +2600,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N28" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O28" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P28" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="N29" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O29" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P29" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44658</v>
+        <v>44694</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
         <v>21600</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44658</v>
+        <v>44694</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44658</v>
+        <v>44694</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
         <v>14400</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
         <v>15000</v>
@@ -3177,19 +3177,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44694</v>
+        <v>45034</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,36 +2840,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44694</v>
+        <v>45034</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,36 +2920,36 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3240,35 +3240,195 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>220</v>
+      </c>
+      <c r="N36" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O36" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>21000</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T36" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>250</v>
+      </c>
+      <c r="N37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>833</v>
+      </c>
+      <c r="T37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="M38" t="n">
         <v>280</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N38" t="n">
         <v>10000</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O38" t="n">
         <v>10000</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P38" t="n">
         <v>10000</v>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S36" t="n">
+      <c r="S38" t="n">
         <v>556</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T38" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -537,12 +537,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,12 +617,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>12000</v>
@@ -697,12 +697,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44698</v>
+        <v>45034</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44698</v>
+        <v>45034</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44698</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1017,19 +1017,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N10" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44649</v>
+        <v>44694</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O12" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P12" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44678</v>
+        <v>44694</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,29 +1395,29 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44678</v>
+        <v>44694</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,29 +1475,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1509,7 +1509,7 @@
         <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44685</v>
+        <v>44309</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>15000</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44309</v>
+        <v>44649</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44309</v>
+        <v>44649</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S20" t="n">
         <v>1200</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
         <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,16 +2195,16 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
         <v>18000</v>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>889</v>
+        <v>694</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44706</v>
+        <v>44658</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N27" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="O27" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="P27" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>694</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N28" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="O28" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="P28" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="O29" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="P29" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44658</v>
+        <v>44687</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>220</v>
       </c>
       <c r="N30" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="O30" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="P30" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45034</v>
+        <v>44687</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N31" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45034</v>
+        <v>44687</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,29 +2927,29 @@
         <v>280</v>
       </c>
       <c r="N32" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N33" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O33" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P33" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
         <v>1200</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3087,29 +3087,29 @@
         <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P34" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N35" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
         <v>800</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44687</v>
+        <v>44685</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N36" t="n">
         <v>21000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44687</v>
+        <v>44685</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N37" t="n">
         <v>15000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44687</v>
+        <v>44685</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44698</v>
+        <v>45051</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44698</v>
+        <v>45051</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45034</v>
+        <v>44698</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45034</v>
+        <v>44698</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>45034</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>45034</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
         <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44694</v>
+        <v>44678</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N12" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44694</v>
+        <v>44678</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1407,17 +1407,17 @@
         <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O14" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P14" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N15" t="n">
         <v>18000</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44649</v>
+        <v>44309</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>1200</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44649</v>
+        <v>44309</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N19" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O19" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P19" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,29 +2204,29 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,29 +2284,29 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44706</v>
+        <v>44305</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44706</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44658</v>
+        <v>44706</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44658</v>
+        <v>44706</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N28" t="n">
-        <v>16200</v>
+        <v>12500</v>
       </c>
       <c r="O28" t="n">
-        <v>16200</v>
+        <v>12500</v>
       </c>
       <c r="P28" t="n">
-        <v>16200</v>
+        <v>12500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>900</v>
+        <v>694</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N29" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O29" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P29" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N30" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="O30" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="P30" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44644</v>
+        <v>44687</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,41 +2995,41 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44644</v>
+        <v>44687</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N36" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="O36" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="P36" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,41 +3315,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3400,35 +3400,195 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>350</v>
+      </c>
+      <c r="N38" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O38" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>21000</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>330</v>
+      </c>
+      <c r="N39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>833</v>
+      </c>
+      <c r="T39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M40" t="n">
         <v>280</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N40" t="n">
         <v>10000</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O40" t="n">
         <v>10000</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P40" t="n">
         <v>10000</v>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S38" t="n">
+      <c r="S40" t="n">
         <v>556</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T40" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45051</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45051</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44698</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>1200</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44698</v>
+        <v>44664</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
         <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44698</v>
+        <v>44664</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45034</v>
+        <v>45051</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45034</v>
+        <v>45051</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,13 +1007,13 @@
         <v>280</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N9" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44678</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44678</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
         <v>21600</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N16" t="n">
         <v>14400</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>1200</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>220</v>
       </c>
       <c r="N19" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="O19" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="P19" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,33 +2200,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,33 +2280,33 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44305</v>
+        <v>44698</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,33 +2440,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44706</v>
+        <v>44285</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44706</v>
+        <v>44285</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,36 +2600,36 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N28" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O28" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="P28" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44658</v>
+        <v>45055</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="N29" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O29" t="n">
-        <v>21600</v>
+        <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>21600</v>
+        <v>10734</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>716</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44658</v>
+        <v>44678</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,36 +2760,36 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="N30" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44658</v>
+        <v>44678</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,36 +2840,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
         <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44687</v>
+        <v>45034</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,36 +2920,36 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1167</v>
+        <v>600</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44687</v>
+        <v>45034</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,36 +3000,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>400</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44687</v>
+        <v>44706</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,41 +3155,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N36" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O36" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P36" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,41 +3395,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N38" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,35 +3560,115 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>220</v>
+      </c>
+      <c r="N40" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>280</v>
-      </c>
-      <c r="N40" t="n">
-        <v>10000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Q40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>250</v>
+      </c>
+      <c r="N41" t="n">
+        <v>14400</v>
+      </c>
+      <c r="O41" t="n">
+        <v>14400</v>
+      </c>
+      <c r="P41" t="n">
+        <v>14400</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S40" t="n">
-        <v>556</v>
-      </c>
-      <c r="T40" t="n">
+      <c r="S41" t="n">
+        <v>800</v>
+      </c>
+      <c r="T41" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O33" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44706</v>
+        <v>45034</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,36 +3080,36 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>889</v>
+        <v>600</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44706</v>
+        <v>45034</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,36 +3160,36 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N35" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="O35" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="P35" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3327,29 +3327,29 @@
         <v>220</v>
       </c>
       <c r="N37" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O37" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="P37" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>900</v>
+        <v>694</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,41 +3475,41 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N39" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="O39" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="P39" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3640,35 +3640,195 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>200</v>
+      </c>
+      <c r="N41" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O41" t="n">
+        <v>21600</v>
+      </c>
+      <c r="P41" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>220</v>
+      </c>
+      <c r="N42" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O42" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P42" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="M43" t="n">
         <v>250</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N43" t="n">
         <v>14400</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O43" t="n">
         <v>14400</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P43" t="n">
         <v>14400</v>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S41" t="n">
+      <c r="S43" t="n">
         <v>800</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T43" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>45063</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>45063</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44649</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,41 +1475,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
         <v>1200</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44649</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N16" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O16" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P16" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="O17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="P17" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N18" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="O18" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="P18" t="n">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O19" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P19" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,33 +2440,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,33 +2520,33 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O28" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P28" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45055</v>
+        <v>44285</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,29 +2684,29 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="N29" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>10734</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>716</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,38 +2755,38 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44678</v>
+        <v>45055</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>10734</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45062</v>
+        <v>44678</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N32" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45062</v>
+        <v>44678</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P34" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O35" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P35" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44706</v>
+        <v>45034</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,36 +3240,36 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>889</v>
+        <v>600</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44706</v>
+        <v>45034</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,36 +3320,36 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N37" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="O37" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="P37" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,32 +3404,32 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3487,29 +3487,29 @@
         <v>220</v>
       </c>
       <c r="N39" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O39" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="P39" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>694</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N40" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P40" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N41" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="O41" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="P41" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3800,35 +3800,195 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>200</v>
+      </c>
+      <c r="N43" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O43" t="n">
+        <v>21600</v>
+      </c>
+      <c r="P43" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T43" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>220</v>
+      </c>
+      <c r="N44" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O44" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P44" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="M45" t="n">
         <v>250</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N45" t="n">
         <v>14400</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O45" t="n">
         <v>14400</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P45" t="n">
         <v>14400</v>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S43" t="n">
+      <c r="S45" t="n">
         <v>800</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T45" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45034</v>
+        <v>45068</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N36" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O36" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>9000</v>
+        <v>10786</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>600</v>
+        <v>719</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O37" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P37" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44706</v>
+        <v>45034</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,36 +3400,36 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>694</v>
+        <v>889</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N41" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O41" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P41" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N43" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P43" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3960,35 +3960,115 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>220</v>
+      </c>
+      <c r="N45" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P45" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="M46" t="n">
         <v>250</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N46" t="n">
         <v>14400</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O46" t="n">
         <v>14400</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P46" t="n">
         <v>14400</v>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S45" t="n">
+      <c r="S46" t="n">
         <v>800</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T46" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44285</v>
+        <v>45070</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,29 +2604,29 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44285</v>
+        <v>45070</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,29 +2684,29 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45055</v>
+        <v>44285</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,29 +2844,29 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>10734</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>716</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,38 +2915,38 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44678</v>
+        <v>45055</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>10734</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45062</v>
+        <v>44678</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N34" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O34" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45062</v>
+        <v>44678</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N35" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45068</v>
+        <v>45062</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
         <v>10500</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P36" t="n">
-        <v>10786</v>
+        <v>10500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
         <v>9000</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S37" t="n">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45034</v>
+        <v>45068</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N38" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O38" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P38" t="n">
-        <v>6000</v>
+        <v>10786</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>400</v>
+        <v>719</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44706</v>
+        <v>45034</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,36 +3480,36 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>889</v>
+        <v>600</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44706</v>
+        <v>45034</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,36 +3560,36 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N40" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="O40" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="P40" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,32 +3644,32 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O41" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3727,29 +3727,29 @@
         <v>220</v>
       </c>
       <c r="N42" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O42" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="P42" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>900</v>
+        <v>694</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N43" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N44" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="O44" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="P44" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N45" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4040,35 +4040,195 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>200</v>
+      </c>
+      <c r="N46" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O46" t="n">
+        <v>21600</v>
+      </c>
+      <c r="P46" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>220</v>
+      </c>
+      <c r="N47" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O47" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P47" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T47" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M48" t="n">
         <v>250</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N48" t="n">
         <v>14400</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O48" t="n">
         <v>14400</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P48" t="n">
         <v>14400</v>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S46" t="n">
+      <c r="S48" t="n">
         <v>800</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T48" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44658</v>
+        <v>45076</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="N19" t="n">
-        <v>21600</v>
+        <v>7500</v>
       </c>
       <c r="O19" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>21600</v>
+        <v>7734</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>516</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N20" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="O20" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="P20" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N21" t="n">
-        <v>14400</v>
+        <v>16200</v>
       </c>
       <c r="O21" t="n">
-        <v>14400</v>
+        <v>16200</v>
       </c>
       <c r="P21" t="n">
-        <v>14400</v>
+        <v>16200</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>220</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>280</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45070</v>
+        <v>44698</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O28" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P28" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N29" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O29" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P29" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44285</v>
+        <v>45070</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,33 +2760,33 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N30" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P30" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45055</v>
+        <v>44285</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,33 +3000,33 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="N33" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>10734</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44678</v>
+        <v>45055</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P34" t="n">
-        <v>15000</v>
+        <v>10734</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>716</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45062</v>
+        <v>44678</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N36" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O37" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P37" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45068</v>
+        <v>45062</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O38" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P38" t="n">
-        <v>10786</v>
+        <v>9000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>719</v>
+        <v>600</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45034</v>
+        <v>45068</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N39" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O39" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P39" t="n">
-        <v>9000</v>
+        <v>10786</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>600</v>
+        <v>719</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P40" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44706</v>
+        <v>45034</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,36 +3640,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N41" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P41" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N42" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>694</v>
+        <v>889</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N43" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P43" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N44" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N46" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O46" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O47" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P47" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>
@@ -4200,35 +4200,115 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>220</v>
+      </c>
+      <c r="N48" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O48" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P48" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T48" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="M49" t="n">
         <v>250</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N49" t="n">
         <v>14400</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O49" t="n">
         <v>14400</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P49" t="n">
         <v>14400</v>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S48" t="n">
+      <c r="S49" t="n">
         <v>800</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T49" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44685</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N4" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44664</v>
+        <v>44658</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44664</v>
+        <v>44658</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45051</v>
+        <v>44658</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="O7" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="P7" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45051</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44685</v>
+        <v>45034</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45063</v>
+        <v>45034</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N12" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45063</v>
+        <v>45068</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N13" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P13" t="n">
-        <v>9000</v>
+        <v>10786</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>600</v>
+        <v>719</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44678</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,25 +1475,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44678</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45076</v>
+        <v>44285</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,33 +1880,33 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>7734</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>516</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="N21" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,41 +2115,41 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N22" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44687</v>
+        <v>44698</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44687</v>
+        <v>44698</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44687</v>
+        <v>44305</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44698</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44698</v>
+        <v>44309</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44698</v>
+        <v>44309</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N28" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45070</v>
+        <v>45063</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
         <v>10500</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45070</v>
+        <v>45063</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N30" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P30" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44285</v>
+        <v>45051</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,33 +2840,33 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44285</v>
+        <v>45051</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,33 +2920,33 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44285</v>
+        <v>45055</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,33 +3000,33 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>10734</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45055</v>
+        <v>45070</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
         <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P34" t="n">
-        <v>10734</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44678</v>
+        <v>45070</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44678</v>
+        <v>45062</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O37" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45062</v>
+        <v>44664</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,41 +3395,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O38" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P38" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45068</v>
+        <v>44664</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,32 +3484,32 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N39" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O39" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P39" t="n">
-        <v>10786</v>
+        <v>18000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>719</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45034</v>
+        <v>44664</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45034</v>
+        <v>44687</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,36 +3640,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N41" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="O41" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="P41" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>400</v>
+        <v>1167</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44706</v>
+        <v>44687</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44706</v>
+        <v>44687</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N43" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44644</v>
+        <v>45076</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>7734</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1200</v>
+        <v>516</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N45" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O45" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P45" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N46" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P46" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N47" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P47" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44694</v>
+        <v>44706</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44694</v>
+        <v>44706</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N49" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="O49" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="P49" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="T49" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45051</v>
+        <v>45079</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O31" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45055</v>
+        <v>45051</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N33" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O33" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>10734</v>
+        <v>9000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>716</v>
+        <v>600</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45070</v>
+        <v>45055</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="N34" t="n">
         <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>10734</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N35" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O35" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P35" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45062</v>
+        <v>45070</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N36" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O36" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P36" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O37" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P37" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44664</v>
+        <v>45062</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,41 +3395,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="O38" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="P38" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O39" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P39" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>250</v>
       </c>
       <c r="N40" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P40" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N41" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O41" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1167</v>
+        <v>889</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45076</v>
+        <v>44687</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,36 +3880,36 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N44" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>7734</v>
+        <v>10000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44644</v>
+        <v>45076</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="N45" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O45" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>18000</v>
+        <v>7734</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1200</v>
+        <v>516</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N46" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O46" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P46" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O47" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P47" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,41 +4195,41 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4280,35 +4280,115 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>200</v>
+      </c>
+      <c r="N49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>889</v>
+      </c>
+      <c r="T49" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M50" t="n">
         <v>220</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N50" t="n">
         <v>12500</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O50" t="n">
         <v>12500</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P50" t="n">
         <v>12500</v>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S49" t="n">
+      <c r="S50" t="n">
         <v>694</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T50" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44694</v>
+        <v>45083</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44694</v>
+        <v>45083</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,29 +1087,29 @@
         <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O10" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P10" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45034</v>
+        <v>44694</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45034</v>
+        <v>44694</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45068</v>
+        <v>45034</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O13" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P13" t="n">
-        <v>10786</v>
+        <v>9000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>719</v>
+        <v>600</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44678</v>
+        <v>45034</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,25 +1475,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44678</v>
+        <v>45068</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>10786</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>719</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N16" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44649</v>
+        <v>44678</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N18" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O18" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P18" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44285</v>
+        <v>44649</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,33 +2120,33 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,33 +2200,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44305</v>
+        <v>44698</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44698</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
         <v>18000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
         <v>15000</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45063</v>
+        <v>44309</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O29" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P29" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45063</v>
+        <v>44309</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45079</v>
+        <v>45063</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P31" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45051</v>
+        <v>45063</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P32" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45051</v>
+        <v>45079</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O33" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P33" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45055</v>
+        <v>45051</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
         <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P34" t="n">
-        <v>10734</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45070</v>
+        <v>45051</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>280</v>
       </c>
       <c r="N35" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O35" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P35" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45070</v>
+        <v>45055</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="N36" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O36" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>7500</v>
+        <v>10734</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>500</v>
+        <v>716</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45062</v>
+        <v>45070</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N37" t="n">
         <v>10500</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S37" t="n">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45062</v>
+        <v>45070</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O38" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P38" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44664</v>
+        <v>45062</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,32 +3484,32 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O39" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="P39" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44664</v>
+        <v>45062</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,32 +3564,32 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="P41" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N42" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>250</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P44" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45076</v>
+        <v>44687</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="N45" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>7734</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>516</v>
+        <v>833</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44644</v>
+        <v>44687</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N46" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44644</v>
+        <v>45076</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="N47" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="O47" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P47" t="n">
-        <v>13500</v>
+        <v>7734</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>900</v>
+        <v>516</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N48" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,68 +4327,228 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>290</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O50" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P50" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>800</v>
+      </c>
+      <c r="T50" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>44706</v>
       </c>
-      <c r="E50" t="n">
-        <v>13</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>100104001</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="E51" t="n">
+        <v>13</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>Wonderfull</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>200</v>
+      </c>
+      <c r="N51" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O51" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P51" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>889</v>
+      </c>
+      <c r="T51" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M52" t="n">
         <v>220</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N52" t="n">
         <v>12500</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O52" t="n">
         <v>12500</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P52" t="n">
         <v>12500</v>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S50" t="n">
+      <c r="S52" t="n">
         <v>694</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T52" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44685</v>
+        <v>45051</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P2" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1167</v>
+        <v>700</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44685</v>
+        <v>45051</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="O5" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="P5" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="N6" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45083</v>
+        <v>44649</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45083</v>
+        <v>44649</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,41 +1075,41 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="O9" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="P9" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44694</v>
+        <v>45070</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N10" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O10" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="P10" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44694</v>
+        <v>45070</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,29 +1247,29 @@
         <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44694</v>
+        <v>45063</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="O12" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="P12" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45034</v>
+        <v>45063</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
         <v>9000</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45068</v>
+        <v>45062</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P15" t="n">
-        <v>10786</v>
+        <v>9000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>719</v>
+        <v>600</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44678</v>
+        <v>45068</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>10786</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>719</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44678</v>
+        <v>44698</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>220</v>
       </c>
       <c r="N18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44658</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,41 +2195,41 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>220</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44698</v>
+        <v>44706</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44706</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>45076</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>7734</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>516</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
         <v>18000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
         <v>15000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45063</v>
+        <v>44694</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45063</v>
+        <v>44694</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45079</v>
+        <v>44694</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,36 +3000,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45051</v>
+        <v>44685</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,36 +3080,36 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N34" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45051</v>
+        <v>44685</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,36 +3160,36 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N35" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45055</v>
+        <v>44685</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,36 +3240,36 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N36" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>10734</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>716</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45070</v>
+        <v>44678</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N37" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45070</v>
+        <v>44678</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3407,13 +3407,13 @@
         <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45062</v>
+        <v>45079</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O39" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45062</v>
+        <v>44285</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,33 +3560,33 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P40" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N41" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N44" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>250</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44687</v>
+        <v>45034</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,36 +4040,36 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45076</v>
+        <v>45034</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N47" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O47" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P47" t="n">
-        <v>7734</v>
+        <v>6000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>516</v>
+        <v>400</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44644</v>
+        <v>45055</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>10734</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1200</v>
+        <v>716</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44644</v>
+        <v>45083</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N49" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="P49" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44644</v>
+        <v>45083</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N50" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O50" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P50" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44706</v>
+        <v>44309</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44706</v>
+        <v>44309</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,24 +4520,24 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N52" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45051</v>
+        <v>44685</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N2" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45051</v>
+        <v>44685</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44644</v>
+        <v>44685</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="O5" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44649</v>
+        <v>44658</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="O7" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="P7" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44649</v>
+        <v>45083</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44649</v>
+        <v>45083</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,41 +1075,41 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="O9" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="P9" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45070</v>
+        <v>44694</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O10" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45070</v>
+        <v>44694</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,29 +1247,29 @@
         <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45063</v>
+        <v>44694</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="O12" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="P12" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45063</v>
+        <v>45034</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
         <v>9000</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45062</v>
+        <v>45034</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N14" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="O14" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="P14" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N15" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O15" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P15" t="n">
-        <v>9000</v>
+        <v>10786</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>600</v>
+        <v>719</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45068</v>
+        <v>44678</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N16" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>10786</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>719</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44698</v>
+        <v>44678</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44698</v>
+        <v>44649</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>220</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44698</v>
+        <v>44649</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,41 +2195,41 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="N23" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>220</v>
       </c>
       <c r="N25" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44706</v>
+        <v>44698</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44706</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>694</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45076</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>7734</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
         <v>18000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
         <v>15000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44694</v>
+        <v>45063</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44694</v>
+        <v>45063</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44694</v>
+        <v>45079</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,36 +3000,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44685</v>
+        <v>45051</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,36 +3080,36 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1167</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44685</v>
+        <v>45051</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,36 +3160,36 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44685</v>
+        <v>45055</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,36 +3240,36 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>10734</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>556</v>
+        <v>716</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44678</v>
+        <v>45070</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44678</v>
+        <v>45070</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3407,13 +3407,13 @@
         <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45079</v>
+        <v>45062</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O39" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P39" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44285</v>
+        <v>45062</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,33 +3560,33 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N43" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44664</v>
+        <v>45085</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,32 +3884,32 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>6275</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>418</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44664</v>
+        <v>44687</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P45" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>889</v>
+        <v>1167</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45034</v>
+        <v>44687</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,32 +4044,32 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45034</v>
+        <v>44687</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4127,29 +4127,29 @@
         <v>280</v>
       </c>
       <c r="N47" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45055</v>
+        <v>45076</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4207,13 +4207,13 @@
         <v>470</v>
       </c>
       <c r="N48" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O48" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>10734</v>
+        <v>7734</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>716</v>
+        <v>516</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45083</v>
+        <v>44644</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O49" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45083</v>
+        <v>44644</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,13 +4367,13 @@
         <v>220</v>
       </c>
       <c r="N50" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="O50" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="P50" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44309</v>
+        <v>44644</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N51" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O51" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P51" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,24 +4520,24 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,90 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T52" t="n">
-        <v>15</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>220</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O53" t="n">
+        <v>12500</v>
+      </c>
+      <c r="P53" t="n">
+        <v>12500</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>694</v>
+      </c>
+      <c r="T53" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44685</v>
+        <v>45051</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P2" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1167</v>
+        <v>700</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44685</v>
+        <v>45051</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="O5" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="P5" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="N6" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44658</v>
+        <v>44649</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45083</v>
+        <v>44649</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45083</v>
+        <v>44649</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,41 +1075,41 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="O9" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="P9" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44694</v>
+        <v>45070</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N10" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O10" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="P10" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44694</v>
+        <v>45070</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,29 +1247,29 @@
         <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44694</v>
+        <v>45063</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="O12" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="P12" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45034</v>
+        <v>45063</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
         <v>9000</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O14" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="P14" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45068</v>
+        <v>45062</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P15" t="n">
-        <v>10786</v>
+        <v>9000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>719</v>
+        <v>600</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44678</v>
+        <v>45068</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>10786</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>719</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44678</v>
+        <v>44698</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>220</v>
       </c>
       <c r="N18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>14400</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44658</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,41 +2195,41 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>220</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44698</v>
+        <v>44706</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44706</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>45076</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>7734</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>516</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
         <v>18000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
         <v>15000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45063</v>
+        <v>44694</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45063</v>
+        <v>44694</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45079</v>
+        <v>44694</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,36 +3000,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45051</v>
+        <v>44685</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,36 +3080,36 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N34" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O34" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45051</v>
+        <v>44685</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,36 +3160,36 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N35" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45055</v>
+        <v>44685</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,36 +3240,36 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N36" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>10734</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>716</v>
+        <v>556</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45070</v>
+        <v>44678</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N37" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45070</v>
+        <v>44678</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3407,13 +3407,13 @@
         <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45062</v>
+        <v>45079</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O39" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45062</v>
+        <v>44285</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,33 +3560,33 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O40" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P40" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N41" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44664</v>
+        <v>44285</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45085</v>
+        <v>44664</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,32 +3884,32 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N44" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>6275</v>
+        <v>18000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>418</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N45" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O45" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1167</v>
+        <v>889</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44687</v>
+        <v>45034</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,32 +4044,32 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44687</v>
+        <v>45034</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4127,29 +4127,29 @@
         <v>280</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45076</v>
+        <v>45085</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="N48" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O48" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P48" t="n">
-        <v>7734</v>
+        <v>6275</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44644</v>
+        <v>45055</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="N49" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O49" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P49" t="n">
-        <v>18000</v>
+        <v>10734</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1200</v>
+        <v>716</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44644</v>
+        <v>45083</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N50" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O50" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="P50" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44644</v>
+        <v>45083</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N51" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O51" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P51" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44706</v>
+        <v>44309</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,24 +4520,24 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44706</v>
+        <v>44309</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N53" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O53" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45051</v>
+        <v>44694</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45051</v>
+        <v>44694</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44644</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44644</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N7" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N8" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N9" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45070</v>
+        <v>45034</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O10" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45070</v>
+        <v>45034</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N11" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P11" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45063</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45063</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45062</v>
+        <v>44678</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N14" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45062</v>
+        <v>44678</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N15" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45068</v>
+        <v>45051</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N16" t="n">
         <v>10500</v>
       </c>
       <c r="O16" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P16" t="n">
-        <v>10786</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44698</v>
+        <v>45051</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44687</v>
+        <v>44658</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>14400</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44664</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44658</v>
+        <v>44664</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>21600</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44658</v>
+        <v>45063</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="O24" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="P24" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44658</v>
+        <v>45063</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N25" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="P25" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44706</v>
+        <v>44285</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44706</v>
+        <v>44285</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45076</v>
+        <v>44285</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,33 +2600,33 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="N28" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P28" t="n">
-        <v>7734</v>
+        <v>12000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>516</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44305</v>
+        <v>45079</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O29" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P29" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>13500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,41 +2915,41 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44694</v>
+        <v>44649</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N34" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="O34" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="P34" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44685</v>
+        <v>44706</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44678</v>
+        <v>44706</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44678</v>
+        <v>45083</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N39" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O39" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P39" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44285</v>
+        <v>45062</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,29 +3564,29 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O40" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P40" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44285</v>
+        <v>45062</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,29 +3644,29 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,33 +3720,33 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N43" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44664</v>
+        <v>45055</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P45" t="n">
-        <v>16000</v>
+        <v>10734</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>889</v>
+        <v>716</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45034</v>
+        <v>45070</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45034</v>
+        <v>45070</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O47" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P47" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45085</v>
+        <v>45068</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N48" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O48" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="P48" t="n">
-        <v>6275</v>
+        <v>10786</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>418</v>
+        <v>719</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45055</v>
+        <v>45076</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4287,13 +4287,13 @@
         <v>470</v>
       </c>
       <c r="N49" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O49" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P49" t="n">
-        <v>10734</v>
+        <v>7734</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>716</v>
+        <v>516</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N50" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O50" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="P50" t="n">
-        <v>9000</v>
+        <v>6275</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>600</v>
+        <v>418</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45083</v>
+        <v>44687</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,36 +4440,36 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>220</v>
       </c>
       <c r="N51" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="O51" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="P51" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>400</v>
+        <v>1167</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44309</v>
+        <v>44687</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N52" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44309</v>
+        <v>44687</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4604,20 +4604,20 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="N53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44694</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -549,7 +549,7 @@
         <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44694</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -629,7 +629,7 @@
         <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44685</v>
+        <v>45034</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P7" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1167</v>
+        <v>600</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44685</v>
+        <v>45034</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>400</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44685</v>
+        <v>45051</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45034</v>
+        <v>45051</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N10" t="n">
         <v>9000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45034</v>
+        <v>44678</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44678</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,33 +1400,33 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,16 +1475,16 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,16 +1555,16 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N15" t="n">
         <v>12000</v>
@@ -1577,12 +1577,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45051</v>
+        <v>44694</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O16" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P16" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45051</v>
+        <v>44694</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44658</v>
+        <v>44694</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="O18" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="P18" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44658</v>
+        <v>45070</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="O19" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="P19" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44658</v>
+        <v>45070</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="O20" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="P20" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44664</v>
+        <v>45063</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O21" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="P21" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44664</v>
+        <v>45063</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2127,29 +2127,29 @@
         <v>250</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44664</v>
+        <v>45055</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,41 +2195,41 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>10734</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>889</v>
+        <v>716</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45063</v>
+        <v>45079</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O24" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P24" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45063</v>
+        <v>45083</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
         <v>9000</v>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44285</v>
+        <v>45083</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,33 +2440,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,41 +2515,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,41 +2595,41 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N28" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O28" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P28" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45079</v>
+        <v>44664</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44649</v>
+        <v>45085</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,41 +2995,41 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N33" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="O33" t="n">
-        <v>21600</v>
+        <v>6500</v>
       </c>
       <c r="P33" t="n">
-        <v>21600</v>
+        <v>6275</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>418</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44649</v>
+        <v>45062</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="P34" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44649</v>
+        <v>45062</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,41 +3155,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="O35" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="P35" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44706</v>
+        <v>44685</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>889</v>
+        <v>1167</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44706</v>
+        <v>44685</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N37" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45083</v>
+        <v>44685</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,36 +3400,36 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45083</v>
+        <v>44706</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,36 +3480,36 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>400</v>
+        <v>889</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45062</v>
+        <v>44706</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,36 +3560,36 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N40" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O40" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="P40" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45062</v>
+        <v>44658</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N41" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O41" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P41" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>220</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P43" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44698</v>
+        <v>44687</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N44" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O44" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P44" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45055</v>
+        <v>44687</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="N45" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>10734</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>716</v>
+        <v>833</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45070</v>
+        <v>44687</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,36 +4040,36 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>280</v>
       </c>
       <c r="N46" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45070</v>
+        <v>44649</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="O47" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="P47" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45068</v>
+        <v>44649</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,32 +4204,32 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N48" t="n">
-        <v>10500</v>
+        <v>16200</v>
       </c>
       <c r="O48" t="n">
-        <v>11000</v>
+        <v>16200</v>
       </c>
       <c r="P48" t="n">
-        <v>10786</v>
+        <v>16200</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>719</v>
+        <v>900</v>
       </c>
       <c r="T48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45076</v>
+        <v>44649</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="N49" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="O49" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P49" t="n">
-        <v>7734</v>
+        <v>14400</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>516</v>
+        <v>800</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45085</v>
+        <v>45068</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N50" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O50" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>6275</v>
+        <v>10786</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>418</v>
+        <v>719</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44687</v>
+        <v>44305</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N51" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44687</v>
+        <v>44305</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
         <v>15000</v>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44687</v>
+        <v>45076</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,36 +4600,36 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>7734</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45034</v>
+        <v>45068</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N7" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>9000</v>
+        <v>10786</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>600</v>
+        <v>719</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45034</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="O8" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="P8" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45051</v>
+        <v>44694</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,29 +1087,29 @@
         <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45051</v>
+        <v>44694</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>9000</v>
+        <v>14400</v>
       </c>
       <c r="O10" t="n">
-        <v>9000</v>
+        <v>14400</v>
       </c>
       <c r="P10" t="n">
-        <v>9000</v>
+        <v>14400</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44678</v>
+        <v>45083</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44678</v>
+        <v>45083</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1327,13 +1327,13 @@
         <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1417,12 +1417,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44285</v>
+        <v>44685</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44694</v>
+        <v>44685</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N16" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44694</v>
+        <v>44685</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44694</v>
+        <v>45034</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="O18" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="P18" t="n">
-        <v>14400</v>
+        <v>9000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45070</v>
+        <v>45034</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>280</v>
       </c>
       <c r="N19" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="P19" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45070</v>
+        <v>45051</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1967,13 +1967,13 @@
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O20" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P20" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45063</v>
+        <v>45051</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N21" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O21" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P21" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45063</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,33 +2120,33 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45055</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,29 +2204,29 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>10734</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>716</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45079</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,33 +2280,33 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N24" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45083</v>
+        <v>44658</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O25" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P25" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45083</v>
+        <v>44658</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N26" t="n">
-        <v>6000</v>
+        <v>16200</v>
       </c>
       <c r="O26" t="n">
-        <v>6000</v>
+        <v>16200</v>
       </c>
       <c r="P26" t="n">
-        <v>6000</v>
+        <v>16200</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44664</v>
+        <v>44658</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="O27" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="P27" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44664</v>
+        <v>45063</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,41 +2595,41 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44664</v>
+        <v>45063</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>889</v>
+        <v>600</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,16 +2755,16 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
         <v>18000</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44644</v>
+        <v>44687</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,41 +2915,41 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45085</v>
+        <v>44687</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>6275</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>418</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45062</v>
+        <v>44687</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,36 +3080,36 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45062</v>
+        <v>45076</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="N35" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O35" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>9000</v>
+        <v>7734</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>600</v>
+        <v>516</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N36" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44706</v>
+        <v>44649</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44706</v>
+        <v>44649</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N40" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="O40" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="P40" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44658</v>
+        <v>45085</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N41" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="O41" t="n">
-        <v>21600</v>
+        <v>6500</v>
       </c>
       <c r="P41" t="n">
-        <v>21600</v>
+        <v>6275</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>418</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44658</v>
+        <v>45055</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,32 +3724,32 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="N42" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="O42" t="n">
-        <v>16200</v>
+        <v>11000</v>
       </c>
       <c r="P42" t="n">
-        <v>16200</v>
+        <v>10734</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>900</v>
+        <v>716</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44658</v>
+        <v>45062</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="O43" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="P43" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44687</v>
+        <v>45062</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,36 +3880,36 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O44" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P44" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1167</v>
+        <v>600</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44687</v>
+        <v>45079</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44687</v>
+        <v>45070</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,36 +4040,36 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>280</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44649</v>
+        <v>45070</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>21600</v>
+        <v>7500</v>
       </c>
       <c r="O47" t="n">
-        <v>21600</v>
+        <v>7500</v>
       </c>
       <c r="P47" t="n">
-        <v>21600</v>
+        <v>7500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N48" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="O48" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="P48" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N49" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O49" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>18</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45068</v>
+        <v>44664</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,41 +4355,41 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N50" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>10786</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>719</v>
+        <v>889</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,16 +4435,16 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N51" t="n">
         <v>18000</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S51" t="n">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P52" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45076</v>
+        <v>44644</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="N53" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>7734</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>516</v>
+        <v>800</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44706</v>
+        <v>45076</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>7734</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>889</v>
+        <v>516</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44706</v>
+        <v>45051</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,29 +607,29 @@
         <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O3" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="P3" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44698</v>
+        <v>45051</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>280</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,33 +760,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,33 +840,33 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45068</v>
+        <v>44285</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,33 +920,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="N7" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>10786</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>719</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44694</v>
+        <v>45070</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N8" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O8" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="P8" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44694</v>
+        <v>45070</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,29 +1087,29 @@
         <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44694</v>
+        <v>45062</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="O10" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="P10" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45083</v>
+        <v>45062</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>9000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45083</v>
+        <v>44698</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44309</v>
+        <v>44698</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44685</v>
+        <v>45063</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P15" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1167</v>
+        <v>700</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44685</v>
+        <v>45063</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44685</v>
+        <v>45083</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45034</v>
+        <v>45083</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N18" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O18" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P18" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45034</v>
+        <v>45085</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N19" t="n">
         <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="P19" t="n">
-        <v>6000</v>
+        <v>6275</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45051</v>
+        <v>44687</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45051</v>
+        <v>44687</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44678</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,16 +2195,16 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="N23" t="n">
         <v>15000</v>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44285</v>
+        <v>44678</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,16 +2275,16 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
         <v>12000</v>
@@ -2297,12 +2297,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
         <v>1200</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,41 +2435,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44658</v>
+        <v>45055</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,41 +2515,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="N27" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="O27" t="n">
-        <v>14400</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>14400</v>
+        <v>10734</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45063</v>
+        <v>45079</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O28" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P28" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45063</v>
+        <v>45034</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N29" t="n">
         <v>9000</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S29" t="n">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44305</v>
+        <v>45034</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="N30" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O30" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P30" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44305</v>
+        <v>44649</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44687</v>
+        <v>44649</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45076</v>
+        <v>44694</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="N35" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P35" t="n">
-        <v>7734</v>
+        <v>18000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44678</v>
+        <v>44694</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44678</v>
+        <v>44706</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44649</v>
+        <v>44706</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>21600</v>
+        <v>12500</v>
       </c>
       <c r="O38" t="n">
-        <v>21600</v>
+        <v>12500</v>
       </c>
       <c r="P38" t="n">
-        <v>21600</v>
+        <v>12500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N39" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="O39" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="N40" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45085</v>
+        <v>44685</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,36 +3640,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N41" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>6275</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>418</v>
+        <v>556</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45055</v>
+        <v>44664</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="N42" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O42" t="n">
-        <v>11000</v>
+        <v>21600</v>
       </c>
       <c r="P42" t="n">
-        <v>10734</v>
+        <v>21600</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>716</v>
+        <v>1200</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45062</v>
+        <v>44664</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N43" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45062</v>
+        <v>44664</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N44" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45079</v>
+        <v>44658</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N45" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="O45" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="P45" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45070</v>
+        <v>44658</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N46" t="n">
-        <v>10500</v>
+        <v>16200</v>
       </c>
       <c r="O46" t="n">
-        <v>10500</v>
+        <v>16200</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>16200</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45070</v>
+        <v>44658</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="O47" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="P47" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44664</v>
+        <v>44305</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,41 +4195,41 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
         <v>1200</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44664</v>
+        <v>44305</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
         <v>1000</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44664</v>
+        <v>45068</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,41 +4355,41 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>10786</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>889</v>
+        <v>719</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45076</v>
+        <v>44706</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>7734</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>516</v>
+        <v>889</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45051</v>
+        <v>44706</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,29 +607,29 @@
         <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O3" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="P3" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45051</v>
+        <v>44698</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>280</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,33 +760,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,33 +840,33 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44285</v>
+        <v>45068</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,33 +920,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>10786</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>719</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45070</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O8" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P8" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45070</v>
+        <v>44694</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,29 +1087,29 @@
         <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45062</v>
+        <v>44694</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="O10" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45062</v>
+        <v>45083</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
         <v>9000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44698</v>
+        <v>45083</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44698</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44698</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45063</v>
+        <v>44685</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N15" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45063</v>
+        <v>44685</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45083</v>
+        <v>44685</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45083</v>
+        <v>45034</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O18" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P18" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45085</v>
+        <v>45034</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
         <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="P19" t="n">
-        <v>6275</v>
+        <v>6000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44687</v>
+        <v>45051</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1167</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44687</v>
+        <v>45051</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,16 +2195,16 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
         <v>15000</v>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,16 +2275,16 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N24" t="n">
         <v>12000</v>
@@ -2297,12 +2297,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
         <v>1200</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,41 +2435,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45055</v>
+        <v>44658</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,41 +2515,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="N27" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>14400</v>
       </c>
       <c r="P27" t="n">
-        <v>10734</v>
+        <v>14400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45079</v>
+        <v>45063</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N28" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O28" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P28" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45034</v>
+        <v>45063</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N29" t="n">
         <v>9000</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45034</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44649</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44649</v>
+        <v>44687</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44694</v>
+        <v>44687</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44694</v>
+        <v>45076</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>7734</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>516</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44694</v>
+        <v>44678</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N36" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44706</v>
+        <v>44678</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44706</v>
+        <v>44649</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="O38" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="P38" t="n">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>694</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N39" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="O39" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="P39" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44685</v>
+        <v>45085</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,36 +3640,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>6275</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>556</v>
+        <v>418</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44664</v>
+        <v>45055</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="N42" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O42" t="n">
-        <v>21600</v>
+        <v>11000</v>
       </c>
       <c r="P42" t="n">
-        <v>21600</v>
+        <v>10734</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1200</v>
+        <v>716</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44664</v>
+        <v>45062</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P43" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44664</v>
+        <v>45062</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>889</v>
+        <v>600</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44658</v>
+        <v>45079</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>21600</v>
+        <v>7500</v>
       </c>
       <c r="O45" t="n">
-        <v>21600</v>
+        <v>7500</v>
       </c>
       <c r="P45" t="n">
-        <v>21600</v>
+        <v>7500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44658</v>
+        <v>45070</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N46" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="O46" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="P46" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44658</v>
+        <v>45070</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="O47" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="P47" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,41 +4195,41 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S48" t="n">
         <v>1200</v>
       </c>
       <c r="T48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44305</v>
+        <v>44664</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S49" t="n">
         <v>1000</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45068</v>
+        <v>44664</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,41 +4355,41 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N50" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>10786</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>719</v>
+        <v>889</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45076</v>
+        <v>45085</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="N2" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P2" t="n">
-        <v>7734</v>
+        <v>6275</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45051</v>
+        <v>45079</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O3" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45051</v>
+        <v>45034</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>9000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44285</v>
+        <v>45034</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,33 +760,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,33 +840,33 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44285</v>
+        <v>44698</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,33 +920,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45070</v>
+        <v>44698</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45070</v>
+        <v>44706</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45062</v>
+        <v>44706</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N10" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O10" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45062</v>
+        <v>44658</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N11" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O11" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P11" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44698</v>
+        <v>45070</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45063</v>
+        <v>45070</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>220</v>
       </c>
       <c r="N15" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O15" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P15" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45063</v>
+        <v>44664</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O16" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P16" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45083</v>
+        <v>44664</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45083</v>
+        <v>44664</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>400</v>
+        <v>889</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45085</v>
+        <v>45076</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="N19" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O19" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>6275</v>
+        <v>7734</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>418</v>
+        <v>516</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44687</v>
+        <v>45068</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>10786</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1167</v>
+        <v>719</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44678</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,38 +2195,38 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44678</v>
+        <v>44694</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N25" t="n">
         <v>18000</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45055</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>470</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>10734</v>
+        <v>18000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>716</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45079</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O29" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P29" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45034</v>
+        <v>45062</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P30" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44649</v>
+        <v>45055</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>10734</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>716</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="O32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="P32" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44694</v>
+        <v>44685</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,16 +3155,16 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N35" t="n">
         <v>18000</v>
@@ -3177,19 +3177,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N36" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="O36" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44706</v>
+        <v>44644</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,41 +3315,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44706</v>
+        <v>44687</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="O38" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="P38" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>694</v>
+        <v>1167</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N39" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N42" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="O42" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="P42" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N43" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P43" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44664</v>
+        <v>44309</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44658</v>
+        <v>44309</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="N45" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44658</v>
+        <v>45083</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="N46" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="O46" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44658</v>
+        <v>45083</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="O47" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="P47" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44305</v>
+        <v>45063</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44305</v>
+        <v>45063</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P49" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45068</v>
+        <v>44678</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N50" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>10786</v>
+        <v>15000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>719</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44644</v>
+        <v>44678</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N51" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O51" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P51" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44644</v>
+        <v>45051</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4527,13 +4527,13 @@
         <v>220</v>
       </c>
       <c r="N52" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O52" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P52" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44644</v>
+        <v>45051</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N53" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O53" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P53" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45085</v>
+        <v>45076</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>6275</v>
+        <v>7734</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>418</v>
+        <v>516</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45079</v>
+        <v>45051</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O3" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P3" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45034</v>
+        <v>45051</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N4" t="n">
         <v>9000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45034</v>
+        <v>44285</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,33 +760,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,33 +840,33 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44698</v>
+        <v>44285</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,33 +920,33 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44698</v>
+        <v>45070</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44706</v>
+        <v>45070</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44706</v>
+        <v>45062</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O10" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="P10" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44658</v>
+        <v>45062</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="O11" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="P11" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N12" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44658</v>
+        <v>44698</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45070</v>
+        <v>44698</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45070</v>
+        <v>45063</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>220</v>
       </c>
       <c r="N15" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O15" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P15" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44664</v>
+        <v>45063</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="O16" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="P16" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44664</v>
+        <v>45083</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44664</v>
+        <v>45083</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45076</v>
+        <v>45085</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="N19" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P19" t="n">
-        <v>7734</v>
+        <v>6275</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45068</v>
+        <v>44687</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>10786</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>719</v>
+        <v>1167</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44687</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44678</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,38 +2195,38 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44694</v>
+        <v>44678</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N24" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44694</v>
+        <v>44309</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
         <v>18000</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44694</v>
+        <v>44309</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>45055</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>470</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>10734</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>716</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>45079</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45062</v>
+        <v>45034</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N29" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O29" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P29" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45062</v>
+        <v>45034</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O30" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P30" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45055</v>
+        <v>44649</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>10734</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>716</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1167</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,16 +3155,16 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N35" t="n">
         <v>18000</v>
@@ -3177,19 +3177,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44644</v>
+        <v>44694</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N36" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="O36" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="P36" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,41 +3315,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44687</v>
+        <v>44706</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="O38" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P38" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1167</v>
+        <v>694</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44687</v>
+        <v>44685</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44687</v>
+        <v>44685</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44649</v>
+        <v>44685</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N41" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N42" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="O42" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="P42" t="n">
-        <v>16200</v>
+        <v>21600</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44649</v>
+        <v>44664</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N43" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44309</v>
+        <v>44664</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44309</v>
+        <v>44658</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45083</v>
+        <v>44658</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>16200</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45083</v>
+        <v>44658</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="O47" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="P47" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45063</v>
+        <v>44305</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45063</v>
+        <v>44305</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44678</v>
+        <v>45068</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>15000</v>
+        <v>10786</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>719</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44678</v>
+        <v>44644</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N51" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45051</v>
+        <v>44644</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4527,13 +4527,13 @@
         <v>220</v>
       </c>
       <c r="N52" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O52" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45051</v>
+        <v>44644</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N53" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45085</v>
+        <v>45062</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O2" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="P2" t="n">
-        <v>6275</v>
+        <v>10500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>418</v>
+        <v>700</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45079</v>
+        <v>45062</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P3" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45034</v>
+        <v>45051</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P4" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45034</v>
+        <v>45051</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44698</v>
+        <v>45079</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44698</v>
+        <v>44658</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>16200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44706</v>
+        <v>44658</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44706</v>
+        <v>45085</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="P10" t="n">
-        <v>12500</v>
+        <v>6275</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>694</v>
+        <v>418</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44658</v>
+        <v>45083</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="O11" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="P11" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44658</v>
+        <v>45083</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>16200</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>16200</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>16200</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44658</v>
+        <v>44285</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45070</v>
+        <v>44285</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,33 +1480,33 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45070</v>
+        <v>44285</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,33 +1560,33 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N15" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N16" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="P16" t="n">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>1167</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45076</v>
+        <v>44678</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="N19" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>7734</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45068</v>
+        <v>44678</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>10786</v>
+        <v>12000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>719</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
         <v>18000</v>
@@ -2057,12 +2057,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
         <v>15000</v>
@@ -2137,12 +2137,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>45034</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,33 +2200,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44694</v>
+        <v>45034</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,36 +2280,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="O24" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="P24" t="n">
-        <v>21600</v>
+        <v>6000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,16 +2355,16 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N25" t="n">
         <v>18000</v>
@@ -2377,19 +2377,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44694</v>
+        <v>44644</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,41 +2435,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N26" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="O26" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="P26" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44644</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="N27" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P27" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>45055</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>10734</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>716</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45062</v>
+        <v>45070</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N29" t="n">
         <v>10500</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S29" t="n">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45062</v>
+        <v>45070</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O30" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P30" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45055</v>
+        <v>44687</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,36 +2840,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P31" t="n">
-        <v>10734</v>
+        <v>21000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>716</v>
+        <v>1167</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44685</v>
+        <v>44649</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,24 +3240,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N36" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="O36" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="P36" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44644</v>
+        <v>44309</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44687</v>
+        <v>44309</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N38" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44687</v>
+        <v>44698</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44687</v>
+        <v>44698</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44649</v>
+        <v>44698</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44649</v>
+        <v>45068</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,32 +3724,32 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N42" t="n">
-        <v>16200</v>
+        <v>10500</v>
       </c>
       <c r="O42" t="n">
-        <v>16200</v>
+        <v>11000</v>
       </c>
       <c r="P42" t="n">
-        <v>16200</v>
+        <v>10786</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>900</v>
+        <v>719</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44649</v>
+        <v>44694</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O43" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P43" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N44" t="n">
         <v>18000</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44309</v>
+        <v>44694</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45083</v>
+        <v>45063</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45083</v>
+        <v>45063</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N47" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O47" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P47" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45063</v>
+        <v>44706</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4204,32 +4204,32 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="T48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45063</v>
+        <v>44706</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4284,32 +4284,32 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N49" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="O49" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="P49" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>600</v>
+        <v>694</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44678</v>
+        <v>45076</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>15000</v>
+        <v>7734</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>516</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,36 +4440,36 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N51" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O51" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P51" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45051</v>
+        <v>44664</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,32 +4524,32 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N52" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O52" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45051</v>
+        <v>44664</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,32 +4604,32 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N53" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45062</v>
+        <v>45085</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N2" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="O2" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="P2" t="n">
-        <v>10500</v>
+        <v>6275</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>700</v>
+        <v>418</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45062</v>
+        <v>44706</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45051</v>
+        <v>44706</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,29 +687,29 @@
         <v>220</v>
       </c>
       <c r="N4" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O4" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="P4" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N5" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O5" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P5" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45079</v>
+        <v>45051</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N6" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O6" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P6" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45085</v>
+        <v>45070</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O10" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="P10" t="n">
-        <v>6275</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>418</v>
+        <v>700</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45083</v>
+        <v>45070</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O11" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45083</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44285</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,33 +1400,33 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,41 +1475,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44685</v>
+        <v>44664</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1167</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>1167</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44685</v>
+        <v>44687</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44678</v>
+        <v>44687</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,29 +1875,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44678</v>
+        <v>44649</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>220</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44305</v>
+        <v>44649</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44649</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45034</v>
+        <v>44309</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45034</v>
+        <v>44309</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44644</v>
+        <v>45034</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44644</v>
+        <v>45034</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N26" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="O26" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="P26" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44644</v>
+        <v>45079</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O27" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P27" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45055</v>
+        <v>44685</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,36 +2600,36 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="N28" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O28" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P28" t="n">
-        <v>10734</v>
+        <v>21000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>716</v>
+        <v>1167</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45070</v>
+        <v>44685</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,36 +2680,36 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N29" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45070</v>
+        <v>44685</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,36 +2760,36 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N30" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N31" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44687</v>
+        <v>44644</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44649</v>
+        <v>45062</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44649</v>
+        <v>45062</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="O35" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="P35" t="n">
-        <v>16200</v>
+        <v>9000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44649</v>
+        <v>44285</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O36" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,29 +3324,29 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N37" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44309</v>
+        <v>44285</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,29 +3404,29 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44698</v>
+        <v>45063</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N39" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O39" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P39" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44698</v>
+        <v>45063</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44698</v>
+        <v>45076</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>7734</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>800</v>
+        <v>516</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44694</v>
+        <v>45083</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,32 +3804,32 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N43" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="O43" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="P43" t="n">
-        <v>21600</v>
+        <v>9000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44694</v>
+        <v>45083</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3887,29 +3887,29 @@
         <v>220</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44694</v>
+        <v>44678</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,29 +3955,29 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N45" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45063</v>
+        <v>44678</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>220</v>
       </c>
       <c r="N46" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O46" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45063</v>
+        <v>44694</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,36 +4120,36 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="O47" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="P47" t="n">
-        <v>9000</v>
+        <v>21600</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44706</v>
+        <v>44694</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44706</v>
+        <v>44694</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N49" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="O49" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="P49" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="T49" t="n">
         <v>18</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45076</v>
+        <v>45055</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4367,13 +4367,13 @@
         <v>470</v>
       </c>
       <c r="N50" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>7734</v>
+        <v>10734</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>516</v>
+        <v>716</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,32 +4444,32 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N51" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
         <v>1200</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,32 +4524,32 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N52" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
         <v>1000</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44664</v>
+        <v>44698</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,32 +4604,32 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45085</v>
+        <v>44664</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="O2" t="n">
-        <v>6500</v>
+        <v>21600</v>
       </c>
       <c r="P2" t="n">
-        <v>6275</v>
+        <v>21600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>418</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44706</v>
+        <v>44664</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44706</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>694</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45051</v>
+        <v>45079</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O5" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45051</v>
+        <v>45085</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O6" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="P6" t="n">
-        <v>9000</v>
+        <v>6275</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>600</v>
+        <v>418</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44658</v>
+        <v>45068</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N7" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O7" t="n">
-        <v>21600</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>21600</v>
+        <v>10786</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1200</v>
+        <v>719</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44658</v>
+        <v>44685</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N8" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>16200</v>
+        <v>21000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44658</v>
+        <v>44685</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N9" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45070</v>
+        <v>44685</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>280</v>
       </c>
       <c r="N10" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45070</v>
+        <v>44658</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N11" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="P11" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44658</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44658</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44664</v>
+        <v>45070</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N14" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="O14" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="P14" t="n">
-        <v>21600</v>
+        <v>10500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44664</v>
+        <v>45070</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44664</v>
+        <v>45051</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44687</v>
+        <v>45051</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O17" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P17" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1167</v>
+        <v>600</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44687</v>
+        <v>45055</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>10734</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>833</v>
+        <v>716</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44687</v>
+        <v>44285</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44649</v>
+        <v>44285</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44649</v>
+        <v>44285</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N21" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44649</v>
+        <v>44706</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44309</v>
+        <v>44706</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44309</v>
+        <v>45083</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45034</v>
+        <v>45083</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O25" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P25" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O26" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P26" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45079</v>
+        <v>45034</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N27" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O27" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P27" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N28" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44685</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44644</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44644</v>
+        <v>45062</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O32" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P32" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44644</v>
+        <v>45062</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45062</v>
+        <v>44644</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N34" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45062</v>
+        <v>44644</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N35" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="O35" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="P35" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44285</v>
+        <v>44644</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,38 +3235,38 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N36" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,29 +3324,29 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44285</v>
+        <v>44309</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,29 +3404,29 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45063</v>
+        <v>44687</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,29 +3487,29 @@
         <v>220</v>
       </c>
       <c r="N39" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O39" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45063</v>
+        <v>44687</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,29 +3567,29 @@
         <v>250</v>
       </c>
       <c r="N40" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45076</v>
+        <v>44687</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,36 +3640,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N41" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>7734</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>516</v>
+        <v>556</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45068</v>
+        <v>44694</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,36 +3720,36 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N42" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O42" t="n">
-        <v>11000</v>
+        <v>21600</v>
       </c>
       <c r="P42" t="n">
-        <v>10786</v>
+        <v>21600</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>719</v>
+        <v>1200</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45083</v>
+        <v>44694</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,36 +3800,36 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N43" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45083</v>
+        <v>44694</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,36 +3880,36 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N44" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="O44" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="P44" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44678</v>
+        <v>45076</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>7734</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>516</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44678</v>
+        <v>44698</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Wonderfull</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="N46" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P46" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N47" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44694</v>
+        <v>44698</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44694</v>
+        <v>45063</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,36 +4280,36 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N49" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="O49" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="P49" t="n">
-        <v>14400</v>
+        <v>10500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45055</v>
+        <v>45063</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="N50" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P50" t="n">
-        <v>10734</v>
+        <v>9000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>716</v>
+        <v>600</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44698</v>
+        <v>44649</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,32 +4444,32 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N51" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O51" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P51" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S51" t="n">
         <v>1200</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44698</v>
+        <v>44649</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,32 +4524,32 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="P52" t="n">
-        <v>15000</v>
+        <v>16200</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44698</v>
+        <v>44649</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,32 +4604,32 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N53" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O53" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P53" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S53" t="n">
         <v>800</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
         <v>21600</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>16200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>44649</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45079</v>
+        <v>45070</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O5" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P5" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45085</v>
+        <v>45070</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N6" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O6" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="P6" t="n">
-        <v>6275</v>
+        <v>7500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45068</v>
+        <v>44694</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>21600</v>
       </c>
       <c r="P7" t="n">
-        <v>10786</v>
+        <v>21600</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>719</v>
+        <v>1200</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44685</v>
+        <v>44694</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44685</v>
+        <v>45079</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N11" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1269,7 +1269,7 @@
         <v>1200</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>16200</v>
+        <v>13500</v>
       </c>
       <c r="O12" t="n">
-        <v>16200</v>
+        <v>13500</v>
       </c>
       <c r="P12" t="n">
-        <v>16200</v>
+        <v>13500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1349,7 +1349,7 @@
         <v>900</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44658</v>
+        <v>44644</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="N13" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1429,7 +1429,7 @@
         <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45070</v>
+        <v>44285</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,29 +1484,29 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45070</v>
+        <v>44285</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,29 +1564,29 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45051</v>
+        <v>44285</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,33 +1640,33 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="N16" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45055</v>
+        <v>45051</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>470</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P18" t="n">
-        <v>10734</v>
+        <v>9000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>716</v>
+        <v>600</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44285</v>
+        <v>45055</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,33 +1880,33 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>10734</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1200</v>
+        <v>716</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>21600</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44285</v>
+        <v>44664</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Wonderfull</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44706</v>
+        <v>44664</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115